--- a/data/CLC KPI dashboard_19052020.xlsx
+++ b/data/CLC KPI dashboard_19052020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docs.philips.com/personal/caroline_gitonga_philips_com/Documents/Carol/CLC/CLC 2020/M&amp;E/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\CPCSDASH\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD3B7A-DF53-458D-8895-204B9E593B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANC_1stand4th" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -34,7 +35,7 @@
   <definedNames>
     <definedName name="Slicer_Facility_name">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId19"/>
     <pivotCache cacheId="1" r:id="rId20"/>
@@ -50,6 +51,15 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1476,12 +1486,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,6 +1648,13 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2082,7 +2099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2172,29 +2189,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2202,41 +2198,116 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2245,11 +2316,37 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2315,137 +2412,57 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2455,11 +2472,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3198,6 +3227,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -3219,6 +3286,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3255,28 +3360,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANC_1stand4th!$A$4:$A$11</c:f>
+              <c:f>ANC_1stand4th!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -3284,30 +3374,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANC_1stand4th!$B$4:$B$11</c:f>
+              <c:f>ANC_1stand4th!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>884</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2720</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2947</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2092</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3152</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4016</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,28 +3425,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANC_1stand4th!$A$4:$A$11</c:f>
+              <c:f>ANC_1stand4th!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -3379,27 +3439,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANC_1stand4th!$C$4:$C$11</c:f>
+              <c:f>ANC_1stand4th!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>272</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>817</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1623</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2796</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3839,6 +3887,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3875,28 +3964,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Deliveries!$A$4:$A$11</c:f>
+              <c:f>Deliveries!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -3904,27 +3978,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deliveries!$B$4:$B$11</c:f>
+              <c:f>Deliveries!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>584</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,6 +4285,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4257,28 +4360,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Claims!$A$4:$A$11</c:f>
+              <c:f>Claims!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -4286,10 +4374,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Claims!$B$4:$B$11</c:f>
+              <c:f>Claims!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>178900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1702200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4781,6 +4875,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -4798,6 +4930,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4844,28 +5014,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>DPT1andDPT3!$A$4:$A$11</c:f>
+              <c:f>DPT1andDPT3!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -4873,27 +5028,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DPT1andDPT3!$B$4:$B$11</c:f>
+              <c:f>DPT1andDPT3!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>395</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1691</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2612</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4936,28 +5079,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>DPT1andDPT3!$A$4:$A$11</c:f>
+              <c:f>DPT1andDPT3!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -4965,27 +5093,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DPT1andDPT3!$C$4:$C$11</c:f>
+              <c:f>DPT1andDPT3!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>384</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1629</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1910</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>822</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2284</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2312</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5039,7 +5155,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5223,7 +5338,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5594,6 +5708,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -5615,6 +5767,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5651,28 +5841,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANC_1stand4th!$A$4:$A$11</c:f>
+              <c:f>ANC_1stand4th!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -5680,30 +5855,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANC_1stand4th!$B$4:$B$11</c:f>
+              <c:f>ANC_1stand4th!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>884</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2720</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2947</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2092</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3152</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4016</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5746,28 +5906,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANC_1stand4th!$A$4:$A$11</c:f>
+              <c:f>ANC_1stand4th!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -5775,27 +5920,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANC_1stand4th!$C$4:$C$11</c:f>
+              <c:f>ANC_1stand4th!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>272</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>817</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1623</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2796</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5849,7 +5982,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6032,7 +6164,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6151,7 +6282,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6259,6 +6389,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6305,28 +6473,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOPD!$A$4:$A$11</c:f>
+              <c:f>GOPD!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -6334,30 +6487,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOPD!$B$4:$B$11</c:f>
+              <c:f>GOPD!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10105</c:v>
+                  <c:v>27176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35360</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24784</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47796</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70161</c:v>
+                  <c:v>27022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6411,7 +6549,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6685,7 +6822,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6813,6 +6949,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6859,28 +7033,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANC!$A$4:$A$11</c:f>
+              <c:f>ANC!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -6888,30 +7047,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANC!$B$4:$B$11</c:f>
+              <c:f>ANC!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>491</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2840</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9064</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9775</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7795</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11633</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14250</c:v>
+                  <c:v>2543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6965,7 +7109,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7238,7 +7381,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7346,6 +7488,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -7392,28 +7572,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CWC!$A$4:$A$11</c:f>
+              <c:f>CWC!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -7421,30 +7586,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CWC!$B$4:$B$11</c:f>
+              <c:f>CWC!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2745</c:v>
+                  <c:v>3965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6079</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11505</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8270</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16657</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20390</c:v>
+                  <c:v>5231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7498,7 +7648,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7897,6 +8046,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -7935,28 +8122,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>FIC!$A$4:$A$11</c:f>
+              <c:f>FIC!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -7964,30 +8136,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FIC!$B$4:$B$11</c:f>
+              <c:f>FIC!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>446</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>684</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1126</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1444</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1497</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1891</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,6 +8820,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
@@ -8690,6 +8885,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -8736,28 +8969,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>LBW!$A$4:$A$11</c:f>
+              <c:f>LBW!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -8765,27 +8983,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LBW!$B$4:$B$11</c:f>
+              <c:f>LBW!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>207</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>571</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8851,28 +9057,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>LBW!$A$4:$A$11</c:f>
+              <c:f>LBW!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -8880,30 +9071,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LBW!$C$4:$C$11</c:f>
+              <c:f>LBW!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.2801932367149762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5342465753424657</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2211981566820276</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.710575139146568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5294117647058822</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7825059101654848</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5026269702276709</c:v>
+                  <c:v>1.3605442176870748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9578,6 +9754,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -9605,6 +9822,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -9651,28 +9909,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-term2'!$A$4:$A$11</c:f>
+              <c:f>'pre-term2'!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -9680,27 +9923,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-term2'!$B$4:$B$11</c:f>
+              <c:f>'pre-term2'!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>584</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9767,28 +9998,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-term2'!$A$4:$A$11</c:f>
+              <c:f>'pre-term2'!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -9796,30 +10012,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-term2'!$C$4:$C$11</c:f>
+              <c:f>'pre-term2'!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.932367149758454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4246575342465753</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3824884792626728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6697588126159555</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1764705882352942</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1820330969267139</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2259194395796849</c:v>
+                  <c:v>0.68027210884353739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10398,6 +10599,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -10415,6 +10654,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -10451,28 +10728,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>DPT1andDPT3!$A$4:$A$11</c:f>
+              <c:f>DPT1andDPT3!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -10480,27 +10742,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DPT1andDPT3!$B$4:$B$11</c:f>
+              <c:f>DPT1andDPT3!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>395</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1691</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2612</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10543,28 +10793,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>DPT1andDPT3!$A$4:$A$11</c:f>
+              <c:f>DPT1andDPT3!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -10572,27 +10807,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DPT1andDPT3!$C$4:$C$11</c:f>
+              <c:f>DPT1andDPT3!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>384</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1629</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1910</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>822</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2284</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2312</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11257,6 +11480,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -11284,6 +11548,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -11330,28 +11635,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>FSB_rate!$A$4:$A$11</c:f>
+              <c:f>FSB_rate!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -11359,27 +11649,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FSB_rate!$B$4:$B$11</c:f>
+              <c:f>FSB_rate!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>584</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11446,28 +11724,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>FSB_rate!$A$4:$A$11</c:f>
+              <c:f>FSB_rate!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -11475,30 +11738,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FSB_rate!$C$4:$C$11</c:f>
+              <c:f>FSB_rate!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.490066225165563</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.363636363636363</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.855595667870038</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3419203747072599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.410958904109588</c:v>
+                  <c:v>3.3222591362126246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12009,7 +12257,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12117,6 +12364,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -12153,28 +12441,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Deliveries!$A$4:$A$11</c:f>
+              <c:f>Deliveries!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -12182,27 +12455,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deliveries!$B$4:$B$11</c:f>
+              <c:f>Deliveries!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>584</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12556,6 +12817,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -12612,28 +12914,13 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Claims!$A$4:$A$11</c:f>
+              <c:f>Claims!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -12641,10 +12928,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Claims!$B$4:$B$11</c:f>
+              <c:f>Claims!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>178900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1702200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12922,6 +13215,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -12958,28 +13289,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOPD!$A$4:$A$11</c:f>
+              <c:f>GOPD!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -12987,30 +13303,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOPD!$B$4:$B$11</c:f>
+              <c:f>GOPD!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10105</c:v>
+                  <c:v>27176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35360</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24784</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47796</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70161</c:v>
+                  <c:v>27022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13396,6 +13697,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -13432,28 +13771,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANC!$A$4:$A$11</c:f>
+              <c:f>ANC!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -13461,30 +13785,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANC!$B$4:$B$11</c:f>
+              <c:f>ANC!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>491</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2840</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9064</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9775</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7795</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11633</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14250</c:v>
+                  <c:v>2543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13870,6 +14179,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -13906,28 +14253,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CWC!$A$4:$A$11</c:f>
+              <c:f>CWC!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -13935,30 +14267,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CWC!$B$4:$B$11</c:f>
+              <c:f>CWC!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2745</c:v>
+                  <c:v>3965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6079</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11505</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8270</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16657</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20390</c:v>
+                  <c:v>5231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14384,6 +14701,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -14412,6 +14770,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -14458,28 +14857,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>FSB_rate!$A$4:$A$11</c:f>
+              <c:f>FSB_rate!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -14487,27 +14871,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FSB_rate!$B$4:$B$11</c:f>
+              <c:f>FSB_rate!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>584</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14575,28 +14947,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>FSB_rate!$A$4:$A$11</c:f>
+              <c:f>FSB_rate!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -14604,30 +14961,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FSB_rate!$C$4:$C$11</c:f>
+              <c:f>FSB_rate!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.490066225165563</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.363636363636363</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.855595667870038</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3419203747072599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.410958904109588</c:v>
+                  <c:v>3.3222591362126246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15417,6 +15759,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
@@ -15444,6 +15824,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -15488,28 +15906,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>LBW!$A$4:$A$11</c:f>
+              <c:f>LBW!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -15517,27 +15920,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LBW!$B$4:$B$11</c:f>
+              <c:f>LBW!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>207</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>571</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15603,28 +15994,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>LBW!$A$4:$A$11</c:f>
+              <c:f>LBW!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -15632,30 +16008,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LBW!$C$4:$C$11</c:f>
+              <c:f>LBW!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.2801932367149762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5342465753424657</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2211981566820276</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.710575139146568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5294117647058822</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7825059101654848</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5026269702276709</c:v>
+                  <c:v>1.3605442176870748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16146,6 +16507,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -16182,28 +16581,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>FIC!$A$4:$A$11</c:f>
+              <c:f>FIC!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -16211,30 +16595,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FIC!$B$4:$B$11</c:f>
+              <c:f>FIC!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>446</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>684</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1126</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1444</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1497</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1891</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16716,6 +17085,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -16743,6 +17153,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -16787,28 +17238,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-term2'!$A$4:$A$11</c:f>
+              <c:f>'pre-term2'!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -16816,27 +17252,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-term2'!$B$4:$B$11</c:f>
+              <c:f>'pre-term2'!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>584</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16903,28 +17327,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-term2'!$A$4:$A$11</c:f>
+              <c:f>'pre-term2'!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -16932,30 +17341,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-term2'!$C$4:$C$11</c:f>
+              <c:f>'pre-term2'!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.932367149758454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4246575342465753</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3824884792626728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6697588126159555</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1764705882352942</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1820330969267139</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2259194395796849</c:v>
+                  <c:v>0.68027210884353739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29378,7 +29772,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29413,7 +29813,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29448,7 +29854,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29483,7 +29895,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29515,7 +29933,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29547,7 +29971,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29579,7 +30009,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29611,7 +30047,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29643,7 +30085,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29677,7 +30125,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="12" name="Facility name"/>
+            <xdr:cNvPr id="12" name="Facility name">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr>
               <a:graphicFrameLocks noMove="1" noResize="1"/>
             </xdr:cNvGraphicFramePr>
@@ -29749,7 +30203,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -29909,7 +30369,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29941,7 +30407,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29973,7 +30445,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30005,7 +30483,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30037,7 +30521,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30074,7 +30564,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30109,7 +30605,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30144,7 +30646,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30179,7 +30687,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30214,7 +30728,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30249,7 +30769,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30284,7 +30810,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30319,7 +30851,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30338,7 +30876,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Philips" refreshedDate="43945.672807291667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Philips" refreshedDate="43945.672807291667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AB1048576" sheet="Annual_data"/>
   </cacheSource>
@@ -30446,7 +30984,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Philips" refreshedDate="43945.672807523151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="17">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Philips" refreshedDate="43945.672807523151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="17" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Annual_data"/>
   </cacheSource>
@@ -31639,14 +32177,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1stand4th_ANC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="1stand4th_ANC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -31695,22 +32233,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -31779,19 +32302,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Patient_experience" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="Patient_experience" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -31840,22 +32366,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -31906,19 +32417,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="calcs2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="calcs2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -31967,22 +32481,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -32017,7 +32516,7 @@
     <dataField name="Sum of FIC" fld="13" baseField="9" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="31">
+    <format dxfId="34">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -32034,12 +32533,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="change_magnitude" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="change_magnitude" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -32163,19 +32665,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pre-term2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="Pre-term2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -32224,22 +32729,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -32308,19 +32798,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Deliveries" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000000000000}" name="Deliveries" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -32369,22 +32862,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -32444,19 +32922,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -32505,22 +32986,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -32562,19 +33028,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DPT1andDPT3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="DPT1andDPT3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -32623,22 +33092,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -32707,19 +33161,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GOPD" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="GOPD" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -32768,22 +33225,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -32825,19 +33267,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ANC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="ANC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -32886,22 +33331,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -32943,19 +33373,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CWC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="CWC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -33004,22 +33437,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -33061,19 +33479,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="FSB_rate" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="FSB_rate" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -33122,22 +33543,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -33164,7 +33570,7 @@
     <dataField name="Fresh stillbirth rate per 1000" fld="25" subtotal="average" baseField="9" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="33">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33173,7 +33579,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33226,19 +33632,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LBW" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="LBW" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -33287,22 +33696,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -33371,19 +33765,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="FIC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="FIC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -33432,22 +33829,7 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="5"/>
     </i>
@@ -33489,19 +33871,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Dropdown" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="Dropdown" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -33541,7 +33926,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -33555,12 +33940,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Facility_name" sourceName="Facility name">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Facility_name" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Facility name">
   <pivotTables>
     <pivotTable tabId="3" name="DPT1andDPT3"/>
     <pivotTable tabId="5" name="ANC"/>
@@ -33581,8 +33969,8 @@
     <tabular pivotCacheId="1">
       <items count="5">
         <i x="1"/>
-        <i x="2"/>
-        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0"/>
         <i x="3"/>
         <i x="4"/>
       </items>
@@ -33592,52 +33980,52 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Facility name" cache="Slicer_Facility_name" caption="Facility name" lockedPosition="1" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Facility name" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Facility_name" caption="Facility name" lockedPosition="1" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Annual_data" displayName="Annual_data" ref="A1:AC18" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:AC18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Annual_data" displayName="Annual_data" ref="A1:AC18" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:AC18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Facility name" dataDxfId="28"/>
-    <tableColumn id="2" name="Location" dataDxfId="27"/>
-    <tableColumn id="3" name="Country" dataDxfId="26"/>
-    <tableColumn id="4" name="County" dataDxfId="25"/>
-    <tableColumn id="5" name="Description" dataDxfId="24"/>
-    <tableColumn id="6" name="Objectives" dataDxfId="23"/>
-    <tableColumn id="7" name="Partners" dataDxfId="22"/>
-    <tableColumn id="8" name="Start Date" dataDxfId="21"/>
-    <tableColumn id="9" name="Project Type" dataDxfId="20"/>
-    <tableColumn id="10" name="Year" dataDxfId="19"/>
-    <tableColumn id="11" name="BCG_n" dataDxfId="18"/>
-    <tableColumn id="12" name="DPT1_n" dataDxfId="17"/>
-    <tableColumn id="13" name="DPT3_n" dataDxfId="16"/>
-    <tableColumn id="14" name="FIC" dataDxfId="15"/>
-    <tableColumn id="15" name="First_ANC" dataDxfId="14"/>
-    <tableColumn id="16" name="ANC_4visits" dataDxfId="13"/>
-    <tableColumn id="17" name="deliveries_n" dataDxfId="12"/>
-    <tableColumn id="18" name="Livebirths_n" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Facility name" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Location" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Country" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="County" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Objectives" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Partners" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Start Date" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Project Type" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Year" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="BCG_n" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DPT1_n" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DPT3_n" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="FIC" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="First_ANC" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ANC_4visits" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="deliveries_n" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Livebirths_n" dataDxfId="14">
       <calculatedColumnFormula>IFERROR(Q2-(S2+T2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Macerated_births" dataDxfId="10"/>
-    <tableColumn id="20" name="FSB" dataDxfId="9"/>
-    <tableColumn id="21" name="pre-term" dataDxfId="8"/>
-    <tableColumn id="22" name="LBW&lt;2500g" dataDxfId="7"/>
-    <tableColumn id="23" name="GOPD_n" dataDxfId="6"/>
-    <tableColumn id="24" name="CWC_n" dataDxfId="5"/>
-    <tableColumn id="25" name="ANC_n" dataDxfId="4"/>
-    <tableColumn id="26" name="FSB_rateper1000" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Macerated_births" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="FSB" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="pre-term" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="LBW&lt;2500g" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="GOPD_n" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="CWC_n" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="ANC_n" dataDxfId="7"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="FSB_rateper1000" dataDxfId="6">
       <calculatedColumnFormula>T2/Q2*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Prop_LBW" dataDxfId="2">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Prop_LBW" dataDxfId="5">
       <calculatedColumnFormula>V2/R2*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="prop_preterm" dataDxfId="1">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="prop_preterm" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(U2/R2*100,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="NHIF_claims" dataDxfId="0"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="NHIF_claims" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -33905,9 +34293,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -33933,88 +34321,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="7">
-        <v>106</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>725</v>
+      </c>
+      <c r="C4" s="7">
+        <v>272</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>884</v>
+        <v>827</v>
       </c>
       <c r="C5" s="7">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>2720</v>
+        <v>1552</v>
       </c>
       <c r="C6" s="7">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2947</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2092</v>
-      </c>
-      <c r="C8" s="7">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3152</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>4016</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>15917</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8890</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -34024,9 +34359,9 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A3:H11"/>
+  <dimension ref="A3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -34072,189 +34407,81 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7">
+        <v>384</v>
+      </c>
+      <c r="C4" s="7">
+        <v>272</v>
+      </c>
       <c r="D4" s="7">
-        <v>10105</v>
+        <v>27176</v>
       </c>
       <c r="E4" s="7">
-        <v>2745</v>
+        <v>3965</v>
       </c>
       <c r="F4" s="7">
-        <v>491</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+        <v>2035</v>
+      </c>
+      <c r="G4" s="7">
+        <v>211</v>
+      </c>
+      <c r="H4" s="7">
+        <v>178900</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>829</v>
+        <v>465</v>
       </c>
       <c r="C5" s="7">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="D5" s="7">
-        <v>24209</v>
+        <v>27022</v>
       </c>
       <c r="E5" s="7">
-        <v>6079</v>
+        <v>5231</v>
       </c>
       <c r="F5" s="7">
-        <v>2840</v>
+        <v>2543</v>
       </c>
       <c r="G5" s="7">
-        <v>151</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1702200</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>1629</v>
+        <v>849</v>
       </c>
       <c r="C6" s="7">
-        <v>1491</v>
+        <v>626</v>
       </c>
       <c r="D6" s="7">
-        <v>35360</v>
+        <v>54198</v>
       </c>
       <c r="E6" s="7">
-        <v>11505</v>
+        <v>9196</v>
       </c>
       <c r="F6" s="7">
-        <v>9064</v>
+        <v>4578</v>
       </c>
       <c r="G6" s="7">
-        <v>440</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1910</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1831</v>
-      </c>
-      <c r="D7" s="7">
-        <v>24784</v>
-      </c>
-      <c r="E7" s="7">
-        <v>14562</v>
-      </c>
-      <c r="F7" s="7">
-        <v>9775</v>
-      </c>
-      <c r="G7" s="7">
-        <v>554</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>822</v>
-      </c>
-      <c r="C8" s="7">
-        <v>817</v>
-      </c>
-      <c r="D8" s="7">
-        <v>16994</v>
-      </c>
-      <c r="E8" s="7">
-        <v>8270</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7795</v>
-      </c>
-      <c r="G8" s="7">
-        <v>172</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2284</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1623</v>
-      </c>
-      <c r="D9" s="7">
-        <v>47796</v>
-      </c>
-      <c r="E9" s="7">
-        <v>16657</v>
-      </c>
-      <c r="F9" s="7">
-        <v>11633</v>
-      </c>
-      <c r="G9" s="7">
-        <v>427</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2312</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2796</v>
-      </c>
-      <c r="D10" s="7">
-        <v>70161</v>
-      </c>
-      <c r="E10" s="7">
-        <v>20390</v>
-      </c>
-      <c r="F10" s="7">
-        <v>14250</v>
-      </c>
-      <c r="G10" s="7">
-        <v>584</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>9786</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8890</v>
-      </c>
-      <c r="D11" s="7">
-        <v>229409</v>
-      </c>
-      <c r="E11" s="7">
-        <v>80208</v>
-      </c>
-      <c r="F11" s="7">
-        <v>55848</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2328</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>512</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1881100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34262,9 +34489,9 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A3:E11"/>
+  <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D4:D10"/>
@@ -34298,138 +34525,53 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <v>6.2801932367149762</v>
       </c>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>1.932367149758454</v>
       </c>
       <c r="E4" s="7">
-        <v>446</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="8">
-        <v>26.490066225165563</v>
+        <v>3.3222591362126246</v>
       </c>
       <c r="C5" s="8">
-        <v>7.5342465753424657</v>
+        <v>1.3605442176870748</v>
       </c>
       <c r="D5" s="8">
-        <v>3.4246575342465753</v>
+        <v>0.68027210884353739</v>
       </c>
       <c r="E5" s="7">
-        <v>684</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="8">
-        <v>11.363636363636363</v>
+        <v>3.3222591362126246</v>
       </c>
       <c r="C6" s="8">
-        <v>6.2211981566820276</v>
+        <v>7.6407374544020508</v>
       </c>
       <c r="D6" s="8">
-        <v>1.3824884792626728</v>
+        <v>2.6126392586019915</v>
       </c>
       <c r="E6" s="7">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="8">
-        <v>19.855595667870038</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3.710575139146568</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1.6697588126159555</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3.5294117647058822</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="E8" s="7">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2.3419203747072599</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3.7825059101654848</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1.1820330969267139</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="8">
-        <v>15.410958904109588</v>
-      </c>
-      <c r="C10" s="8">
-        <v>3.5026269702276709</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.2259194395796849</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="8">
-        <v>75.462177535488806</v>
-      </c>
-      <c r="C11" s="8">
-        <v>28.280564516270093</v>
-      </c>
-      <c r="D11" s="8">
-        <v>10.061327950866897</v>
-      </c>
-      <c r="E11" s="7">
-        <v>7868</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -34438,7 +34580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A3:J12"/>
   <sheetViews>
@@ -34763,9 +34905,9 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
@@ -34791,88 +34933,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="e">
-        <v>#DIV/0!</v>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7">
+        <v>211</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.932367149758454</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="C5" s="7">
-        <v>3.4246575342465753</v>
+        <v>0.68027210884353739</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="C6" s="7">
-        <v>1.3824884792626728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>554</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1.6697588126159555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>172</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1.1764705882352942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>427</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1.1820330969267139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>584</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1.2259194395796849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2328</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1.6768879918111494</v>
+        <v>1.3063196293009958</v>
       </c>
     </row>
   </sheetData>
@@ -34882,9 +34971,9 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -34906,64 +34995,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7">
+        <v>211</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>151</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2328</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -34973,9 +35024,9 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -34997,51 +35048,27 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7">
+        <v>178900</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>2019</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1702200</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B6" s="7">
+        <v>1881100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35050,7 +35077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AC18"/>
   <sheetViews>
@@ -36713,13 +36740,13 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomLeft" sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36734,34 +36761,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
     </row>
     <row r="2" spans="1:26" s="13" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -36788,134 +36815,134 @@
       <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="79" t="str">
+      <c r="F3" s="104" t="str">
         <f>Annual_data[[#Headers],[Facility name]]</f>
         <v>Facility name</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="71" t="str">
+      <c r="G3" s="105"/>
+      <c r="H3" s="96" t="str">
         <f>Dropdown!$A$4</f>
-        <v>Githurai-lang'ata</v>
-      </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+        <v>Emali</v>
+      </c>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F4" s="81" t="str">
+      <c r="F4" s="106" t="str">
         <f>Annual_data[[#Headers],[Location]]</f>
         <v>Location</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="73" t="str">
+      <c r="G4" s="107"/>
+      <c r="H4" s="98" t="str">
         <f>INDEX(Annual_data[Location],MATCH(Dashboard!$H$3,Annual_data[Facility name],0))</f>
-        <v>Kiambu, Kenya</v>
-      </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
+        <v>Makueni, Kenya</v>
+      </c>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="83" t="str">
+      <c r="F5" s="108" t="str">
         <f>Annual_data[[#Headers],[Description]]</f>
         <v>Description</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="77" t="str">
+      <c r="G5" s="109"/>
+      <c r="H5" s="102" t="str">
         <f>INDEX(Annual_data[Description],MATCH(Dashboard!$H$3,Annual_data[Facility name],0))</f>
-        <v>The first CLC site developed for proof of concept. It is a level 3 health facility that provides curative, immunization, antenatal, maternity and postnatal services, HIV and TB services, laboratory and ultrasound services. It also include community health services, provides water through a borehole and solar lighting.</v>
-      </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
+        <v>The Partnership for Primary Care (P4PC) model involves outsourcing the operation of primary health facilities to the Philips/Amref partnership. A feasibility pilot has been ongoing since 2019, the pilot has involved upgrading of Emali health center, Matiku and Tutini dispensaries and documentation of lessons learnt. The pilot will inform the scaling of the project to other facilities in Makueni County.</v>
+      </c>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="83"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="83" t="str">
+      <c r="F10" s="108" t="str">
         <f>Annual_data[[#Headers],[Objectives]]</f>
         <v>Objectives</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="77" t="str">
+      <c r="G10" s="109"/>
+      <c r="H10" s="102" t="str">
         <f>INDEX(Annual_data[Objectives],MATCH(Dashboard!$H$3,Annual_data[Facility name],0))</f>
-        <v>To develop and test the CLC concept</v>
-      </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
+        <v xml:space="preserve">To address access to primary health care through improvements in quality of care, engagement of communities, financial sustainability, and system efficiency. </v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F12" s="85" t="str">
+      <c r="F12" s="110" t="str">
         <f>Annual_data[[#Headers],[Partners]]</f>
         <v>Partners</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="75" t="str">
+      <c r="G12" s="111"/>
+      <c r="H12" s="100" t="str">
         <f>INDEX(Annual_data[Partners],MATCH(Dashboard!$H$3,Annual_data[Facility name],0))</f>
-        <v>Philips and Kiambu County Government</v>
-      </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
+        <v>Philips, Amref and Makueni County</v>
+      </c>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="101"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>
@@ -36939,27 +36966,27 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="117" t="str">
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="61" t="str">
         <f>IF(Dropdown!A4="Githurai-lang'ata", ("Better"),  ("Slightly Better"))</f>
-        <v>Better</v>
+        <v>Slightly Better</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="118"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="118"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
@@ -36971,7 +36998,7 @@
       <c r="A19" s="20"/>
       <c r="B19" s="46">
         <f>IF(Dropdown!A4="Githurai-lang'ata", MIN(Calcs!$A$5:$A$10),  MIN(Calcs!$A$4:$A$10))</f>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C19" s="46">
         <f>MAX(Calcs!$A$4:$A$10)</f>
@@ -36982,27 +37009,27 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="90">
         <f>INDEX(Calcs!$B$4:$B$10,MATCH($B$19,Calcs!$A$4:$A$10,0))</f>
-        <v>829</v>
-      </c>
-      <c r="C20" s="64">
+        <v>384</v>
+      </c>
+      <c r="C20" s="90">
         <f>INDEX(Calcs!$B$4:$B$10,MATCH($C$19,Calcs!$A$4:$A$10,0))</f>
-        <v>2312</v>
-      </c>
-      <c r="D20" s="123">
+        <v>465</v>
+      </c>
+      <c r="D20" s="68">
         <f>($C$20-$B$20)/$B$20*100</f>
-        <v>178.89022919179735</v>
+        <v>21.09375</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="124"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="69"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
@@ -37014,7 +37041,7 @@
       <c r="A23" s="20"/>
       <c r="B23" s="46">
         <f>IF(Dropdown!A4="Githurai-lang'ata", MIN(Calcs!$A$5:$A$10),  MIN(Calcs!$A$4:$A$10))</f>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C23" s="46">
         <f>MAX(Calcs!$A$4:$A$10)</f>
@@ -37025,33 +37052,33 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="90">
         <f>INDEX(Calcs!$C$4:$C$10,MATCH($B$23,Calcs!$A$4:$A$10,0))</f>
-        <v>332</v>
-      </c>
-      <c r="C24" s="64">
+        <v>272</v>
+      </c>
+      <c r="C24" s="90">
         <f>INDEX(Calcs!$C$4:$C$10,MATCH($C$23,Calcs!$A$4:$A$10,0))</f>
-        <v>2796</v>
-      </c>
-      <c r="D24" s="125">
+        <v>354</v>
+      </c>
+      <c r="D24" s="70">
         <f>($C$24-$B$24)/$B$24*100</f>
-        <v>742.16867469879514</v>
+        <v>30.147058823529409</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="123"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="68"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="124"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
@@ -37063,7 +37090,7 @@
       <c r="A28" s="20"/>
       <c r="B28" s="46">
         <f>MIN(Calcs!$A$4:$A$10)</f>
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C28" s="46">
         <f>MAX(Calcs!$A$4:$A$10)</f>
@@ -37074,96 +37101,96 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B29" s="90">
         <f>INDEX(Calcs!$D$4:$D$10,MATCH($B$28,Calcs!$A$4:$A$10,0))</f>
-        <v>10105</v>
-      </c>
-      <c r="C29" s="64">
+        <v>27176</v>
+      </c>
+      <c r="C29" s="90">
         <f>INDEX(Calcs!$D$4:$D$10,MATCH($C$28,Calcs!$A$4:$A$10,0))</f>
-        <v>70161</v>
-      </c>
-      <c r="D29" s="87">
+        <v>27022</v>
+      </c>
+      <c r="D29" s="64">
         <f>($C$29-$B$29)/$B$29*100</f>
-        <v>594.31964374072243</v>
+        <v>-0.56667647924639386</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="87"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="64"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31" s="90">
         <f>INDEX(Calcs!$F$4:$F$10,MATCH($B$28,Calcs!$A$4:$A$10,0))</f>
-        <v>491</v>
-      </c>
-      <c r="C31" s="64">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="90">
         <f>INDEX(Calcs!$F$4:$F$10,MATCH($C$28,Calcs!$A$4:$A$10,0))</f>
-        <v>14250</v>
-      </c>
-      <c r="D31" s="87">
+        <v>2543</v>
+      </c>
+      <c r="D31" s="64">
         <f>($C$31-$B$31)/$B$31*100</f>
-        <v>2802.2403258655804</v>
+        <v>24.963144963144963</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="87"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="64"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="90">
         <f>INDEX(Calcs!$E$4:$E$10,MATCH($B$28,Calcs!$A$4:$A$10,0))</f>
-        <v>2745</v>
-      </c>
-      <c r="C33" s="64">
+        <v>3965</v>
+      </c>
+      <c r="C33" s="90">
         <f>INDEX(Calcs!$E$4:$E$10,MATCH($C$28,Calcs!$A$4:$A$10,0))</f>
-        <v>20390</v>
-      </c>
-      <c r="D33" s="87">
+        <v>5231</v>
+      </c>
+      <c r="D33" s="64">
         <f>(C33-B33)/B33*100</f>
-        <v>642.80510018214943</v>
+        <v>31.929382093316523</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="87"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="64"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="90">
         <f>INDEX(Calcs!$G$4:$G$10,MATCH($B$28,Calcs!$A$4:$A$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="64">
+        <v>211</v>
+      </c>
+      <c r="C35" s="90">
         <f>INDEX(Calcs!$G$4:$G$10,MATCH($C$28,Calcs!$A$4:$A$10,0))</f>
-        <v>584</v>
-      </c>
-      <c r="D35" s="88" t="str">
+        <v>301</v>
+      </c>
+      <c r="D35" s="71">
         <f>IFERROR((C35-B35)/B35*100,"Deliveries started in 2014")</f>
-        <v>Deliveries started in 2014</v>
+        <v>42.654028436018962</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="88"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="71"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
@@ -37173,27 +37200,27 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="121" t="str">
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="66" t="str">
         <f>IF(Dropdown!A4="Githurai-lang'ata", ("Better"),  ("Slightly Better"))</f>
-        <v>Better</v>
+        <v>Slightly Better</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="122"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="67"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="122"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
@@ -37205,7 +37232,7 @@
       <c r="A43" s="20"/>
       <c r="B43" s="46">
         <f>IF(Dropdown!A4="Githurai-lang'ata", MIN(Calcs!$A$5:$A$10),  MIN(Calcs!$A$4:$A$10))</f>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C43" s="46">
         <f>MAX(Calcs2!$A$4:$A$10)</f>
@@ -37216,33 +37243,33 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="106">
+      <c r="B44" s="94">
         <f>INDEX(Calcs2!$B$4:$B$10,MATCH($B$43,Calcs2!$A$4:$A$10,0))</f>
-        <v>26.490066225165563</v>
-      </c>
-      <c r="C44" s="106">
+        <v>0</v>
+      </c>
+      <c r="C44" s="94">
         <f>INDEX(Calcs2!$B$4:$B$10,MATCH($C$43,Calcs2!$A$4:$A$10,0))</f>
-        <v>15.410958904109588</v>
-      </c>
-      <c r="D44" s="87">
+        <v>3.3222591362126246</v>
+      </c>
+      <c r="D44" s="64">
         <f>$C$44-$B$44</f>
-        <v>-11.079107321055975</v>
+        <v>3.3222591362126246</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="105"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="87"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="64"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="105"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="87"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
@@ -37254,7 +37281,7 @@
       <c r="A48" s="20"/>
       <c r="B48" s="46">
         <f>IF(Dropdown!A4="Githurai-lang'ata", MIN(Calcs!$A$5:$A$10),  MIN(Calcs!$A$4:$A$10))</f>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C48" s="46">
         <f>MAX(Calcs2!$A$4:$A$10)</f>
@@ -37265,33 +37292,33 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="120">
         <f>INDEX(Calcs2!$C$4:$C$10,MATCH($B$48,Calcs2!$A$4:$A$10,0))</f>
-        <v>7.5342465753424657</v>
-      </c>
-      <c r="C49" s="61">
+        <v>6.2801932367149762</v>
+      </c>
+      <c r="C49" s="123">
         <f>INDEX(Calcs2!$C$4:$C$10,MATCH($C$48,Calcs2!$A$4:$A$10,0))</f>
-        <v>3.5026269702276709</v>
-      </c>
-      <c r="D49" s="87">
+        <v>1.3605442176870748</v>
+      </c>
+      <c r="D49" s="64">
         <f>$C$49-$B$49</f>
-        <v>-4.0316196051147948</v>
+        <v>-4.9196490190279016</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="87"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="64"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="87"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="64"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
@@ -37303,7 +37330,7 @@
       <c r="A53" s="20"/>
       <c r="B53" s="46">
         <f>IF(Dropdown!A4="Githurai-lang'ata", MIN(Calcs!$A$5:$A$10),  MIN(Calcs!$A$4:$A$10))</f>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C53" s="46">
         <f>MAX(Calcs2!$A$4:$A$10)</f>
@@ -37314,33 +37341,33 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="58">
+      <c r="B54" s="120">
         <f>INDEX(Calcs2!$D$4:$D$10,MATCH($B$53,Calcs2!$A$4:$A$10,0))</f>
-        <v>3.4246575342465753</v>
-      </c>
-      <c r="C54" s="61">
+        <v>1.932367149758454</v>
+      </c>
+      <c r="C54" s="123">
         <f>INDEX(Calcs2!$D$4:$D$10,MATCH($C$53,Calcs2!$A$4:$A$10,0))</f>
-        <v>1.2259194395796849</v>
-      </c>
-      <c r="D54" s="87">
+        <v>0.68027210884353739</v>
+      </c>
+      <c r="D54" s="64">
         <f>$C$54-$B$54</f>
-        <v>-2.1987380946668904</v>
+        <v>-1.2520950409149165</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="87"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="64"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="87"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="64"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
@@ -37352,7 +37379,7 @@
       <c r="A58" s="20"/>
       <c r="B58" s="46">
         <f>IF(Dropdown!A4="Githurai-lang'ata", MIN(Calcs!$A$5:$A$10),  MIN(Calcs!$A$4:$A$10))</f>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C58" s="46">
         <f>MAX(Calcs2!$A$4:$A$10)</f>
@@ -37363,104 +37390,104 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="113">
         <f>INDEX(Calcs2!E4:E10,MATCH($B$58,Calcs2!$A$4:$A$10,0))</f>
-        <v>684</v>
-      </c>
-      <c r="C59" s="52">
+        <v>234</v>
+      </c>
+      <c r="C59" s="116">
         <f>INDEX(Calcs2!E4:E10,MATCH($C$58,Calcs2!$A$4:$A$10,0))</f>
-        <v>1891</v>
-      </c>
-      <c r="D59" s="87">
+        <v>389</v>
+      </c>
+      <c r="D59" s="64">
         <f>(($C$59-$B$59)/$B$59)*100</f>
-        <v>176.46198830409355</v>
+        <v>66.239316239316238</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="87"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="64"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="87"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="64"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="87"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="64"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="120"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="65"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="114" t="s">
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="58" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="115"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="59"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="93"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="116"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="60"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="95" t="s">
+      <c r="A71" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="96"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="117" t="str">
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="61" t="str">
         <f>IF(Dropdown!A36="Githurai-lang'ata", ("Better"),  ("Slightly Better"))</f>
         <v>Slightly Better</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="118"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="62"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="118"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="62"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="119"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="63"/>
     </row>
     <row r="75" spans="1:4" s="37" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="47">
         <f>IF(Dropdown!A21="Githurai-lang'ata", MIN(Calcs!$A$5:$A$10),  MIN(Calcs!$A$4:$A$10))</f>
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C75" s="47">
         <f>MAX(Calcs2!$A$4:$A$10)</f>
@@ -37471,48 +37498,95 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="109">
+      <c r="B76" s="53">
         <f>INDEX(Calcs!$H$4:$H$10,MATCH($B$75,Calcs2!$A$4:$A$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="109">
+        <v>178900</v>
+      </c>
+      <c r="C76" s="53">
         <f>INDEX(Calcs!$H$4:$H$10,MATCH($C$75,Calcs2!$A$4:$A$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="112">
+        <v>1702200</v>
+      </c>
+      <c r="D76" s="56">
         <f>$C$76-$B$76</f>
-        <v>0</v>
+        <v>1523300</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
-      <c r="B77" s="110"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="112"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="56"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
-      <c r="B78" s="110"/>
-      <c r="C78" s="110"/>
-      <c r="D78" s="112"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="56"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
-      <c r="B79" s="110"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="112"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="56"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="107"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="111"/>
-      <c r="D80" s="113"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A15:C17"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H5:M9"/>
+    <mergeCell ref="H10:M11"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A66:C68"/>
+    <mergeCell ref="A71:C74"/>
+    <mergeCell ref="A39:C41"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A59:A63"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A76:A80"/>
     <mergeCell ref="B76:B80"/>
@@ -37529,53 +37603,6 @@
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A66:C68"/>
-    <mergeCell ref="A71:C74"/>
-    <mergeCell ref="A39:C41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A15:C17"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H5:M9"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
   </mergeCells>
   <conditionalFormatting sqref="A20">
     <cfRule type="iconSet" priority="23">
@@ -37779,7 +37806,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1000-000000000000}">
           <x14:formula1>
             <xm:f>Dropdown!$A$4:$A$8</xm:f>
           </x14:formula1>
@@ -37797,7 +37824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -37955,9 +37982,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -37966,7 +37993,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37983,86 +38010,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7">
+        <v>395</v>
+      </c>
+      <c r="C4" s="7">
+        <v>384</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>967</v>
+        <v>475</v>
       </c>
       <c r="C5" s="7">
-        <v>829</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>1691</v>
+        <v>870</v>
       </c>
       <c r="C6" s="7">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>929</v>
-      </c>
-      <c r="C8" s="7">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2394</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2612</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>10610</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9786</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -38072,9 +38048,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B11"/>
@@ -38096,66 +38072,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="7">
-        <v>10105</v>
+        <v>27176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>24209</v>
+        <v>27022</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>35360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>24784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>16994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>47796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>70161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>229409</v>
+        <v>54198</v>
       </c>
     </row>
   </sheetData>
@@ -38165,9 +38101,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -38176,7 +38112,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -38189,66 +38125,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="7">
-        <v>491</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>2840</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>9064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>9775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>7795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>11633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>14250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>55848</v>
+        <v>4578</v>
       </c>
     </row>
   </sheetData>
@@ -38258,9 +38154,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -38269,7 +38165,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -38282,66 +38178,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="7">
-        <v>2745</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>6079</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>11505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>14562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>16657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>20390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>80208</v>
+        <v>9196</v>
       </c>
     </row>
   </sheetData>
@@ -38351,9 +38207,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -38379,88 +38235,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="e">
-        <v>#DIV/0!</v>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7">
+        <v>211</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="C5" s="8">
-        <v>26.490066225165563</v>
+        <v>3.3222591362126246</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="C6" s="8">
-        <v>11.363636363636363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>554</v>
-      </c>
-      <c r="C7" s="8">
-        <v>19.855595667870038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>172</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>427</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2.3419203747072599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>584</v>
-      </c>
-      <c r="C10" s="8">
-        <v>15.410958904109588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2328</v>
-      </c>
-      <c r="C11" s="8">
-        <v>12.577029589248134</v>
+        <v>1.6611295681063123</v>
       </c>
     </row>
   </sheetData>
@@ -38470,9 +38273,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -38499,88 +38302,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="e">
-        <v>#DIV/0!</v>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7">
+        <v>207</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6.2801932367149762</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="C5" s="7">
-        <v>7.5342465753424657</v>
+        <v>1.3605442176870748</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="C6" s="7">
-        <v>6.2211981566820276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>539</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3.710575139146568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>170</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3.5294117647058822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>423</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3.7825059101654848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>571</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3.5026269702276709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2283</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4.7134274193783492</v>
+        <v>3.8203687272010254</v>
       </c>
     </row>
   </sheetData>
@@ -38590,9 +38340,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -38614,66 +38364,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="7">
-        <v>446</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="7">
-        <v>684</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2015</v>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="7">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7">
-        <v>7868</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -38683,7 +38393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A3:A5"/>
   <sheetViews>
@@ -38693,7 +38403,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -38703,7 +38413,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -38717,6 +38427,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DEF0E4DAE2E8644BEB82F96BD4A2201" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee94cec44b6a226a0a933036fab13593">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44ab091d-f00c-49ad-98a9-5b33c819f06a" xmlns:ns4="5475ec48-1b41-4a10-8fee-cf51563dbe8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e02bd7139e442e864c41812cfeb97f1" ns3:_="" ns4:_="">
     <xsd:import namespace="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
@@ -38939,36 +38664,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC7101B5-5498-4A69-BE61-1C04DFF0AB8C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF10E8E9-975A-4C7F-A05F-6549DF1111B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
-    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38991,9 +38690,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF10E8E9-975A-4C7F-A05F-6549DF1111B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC7101B5-5498-4A69-BE61-1C04DFF0AB8C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
+    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/CLC KPI dashboard_19052020.xlsx
+++ b/data/CLC KPI dashboard_19052020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\CPCSDASH\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\PHC_FEB2022_Version_Two\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD3B7A-DF53-458D-8895-204B9E593B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B143D288-3176-4D7F-933D-BDE985A4EB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11850" yWindow="11700" windowWidth="7500" windowHeight="6000" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANC_1stand4th" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -37,8 +37,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId19"/>
-    <pivotCache cacheId="1" r:id="rId20"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
+    <pivotCache cacheId="3" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1604,6 +1604,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1611,6 +1612,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2189,8 +2191,29 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2198,116 +2221,41 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,37 +2264,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2412,57 +2334,140 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2472,23 +2477,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <b val="0"/>
@@ -32177,7 +32170,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="1stand4th_ANC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="1stand4th_ANC" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -32310,7 +32303,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="Patient_experience" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="Patient_experience" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -32425,7 +32418,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="calcs2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="calcs2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -32516,7 +32509,7 @@
     <dataField name="Sum of FIC" fld="13" baseField="9" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="34">
+    <format dxfId="31">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -32541,7 +32534,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="change_magnitude" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="change_magnitude" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -32673,7 +32666,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="Pre-term2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="Pre-term2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -32806,7 +32799,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000000000000}" name="Deliveries" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000000000000}" name="Deliveries" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -32930,7 +32923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -33036,7 +33029,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="DPT1andDPT3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="DPT1andDPT3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -33169,7 +33162,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="GOPD" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="GOPD" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -33275,7 +33268,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="ANC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="ANC" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -33381,7 +33374,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="CWC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="CWC" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -33487,7 +33480,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="FSB_rate" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="FSB_rate" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -33570,7 +33563,7 @@
     <dataField name="Fresh stillbirth rate per 1000" fld="25" subtotal="average" baseField="9" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="36">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33579,7 +33572,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33640,7 +33633,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="LBW" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="LBW" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -33773,7 +33766,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="FIC" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="FIC" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0">
@@ -33879,7 +33872,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="Dropdown" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="Dropdown" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField axis="axisRow" showAll="0">
@@ -33986,46 +33979,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Annual_data" displayName="Annual_data" ref="A1:AC18" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Annual_data" displayName="Annual_data" ref="A1:AC18" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:AC18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Facility name" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Location" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Country" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="County" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Objectives" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Partners" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Start Date" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Project Type" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Year" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="BCG_n" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DPT1_n" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DPT3_n" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="FIC" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="First_ANC" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ANC_4visits" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="deliveries_n" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Livebirths_n" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Facility name" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Location" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Country" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="County" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Objectives" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Partners" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Start Date" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Project Type" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Year" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="BCG_n" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DPT1_n" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DPT3_n" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="FIC" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="First_ANC" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ANC_4visits" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="deliveries_n" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Livebirths_n" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(Q2-(S2+T2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Macerated_births" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="FSB" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="pre-term" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="LBW&lt;2500g" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="GOPD_n" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="CWC_n" dataDxfId="8"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="ANC_n" dataDxfId="7"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="FSB_rateper1000" dataDxfId="6">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Macerated_births" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="FSB" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="pre-term" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="LBW&lt;2500g" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="GOPD_n" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="CWC_n" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="ANC_n" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="FSB_rateper1000" dataDxfId="3">
       <calculatedColumnFormula>T2/Q2*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Prop_LBW" dataDxfId="5">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Prop_LBW" dataDxfId="2">
       <calculatedColumnFormula>V2/R2*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="prop_preterm" dataDxfId="4">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="prop_preterm" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(U2/R2*100,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="NHIF_claims" dataDxfId="3"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="NHIF_claims" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -36744,7 +36737,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:Z1"/>
     </sheetView>
@@ -36761,34 +36754,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
     </row>
     <row r="2" spans="1:26" s="13" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -36815,134 +36808,134 @@
       <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="104" t="str">
+      <c r="F3" s="79" t="str">
         <f>Annual_data[[#Headers],[Facility name]]</f>
         <v>Facility name</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="96" t="str">
+      <c r="G3" s="80"/>
+      <c r="H3" s="71" t="str">
         <f>Dropdown!$A$4</f>
         <v>Emali</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F4" s="106" t="str">
+      <c r="F4" s="81" t="str">
         <f>Annual_data[[#Headers],[Location]]</f>
         <v>Location</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="98" t="str">
+      <c r="G4" s="82"/>
+      <c r="H4" s="73" t="str">
         <f>INDEX(Annual_data[Location],MATCH(Dashboard!$H$3,Annual_data[Facility name],0))</f>
         <v>Makueni, Kenya</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="108" t="str">
+      <c r="F5" s="83" t="str">
         <f>Annual_data[[#Headers],[Description]]</f>
         <v>Description</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="102" t="str">
+      <c r="G5" s="84"/>
+      <c r="H5" s="77" t="str">
         <f>INDEX(Annual_data[Description],MATCH(Dashboard!$H$3,Annual_data[Facility name],0))</f>
         <v>The Partnership for Primary Care (P4PC) model involves outsourcing the operation of primary health facilities to the Philips/Amref partnership. A feasibility pilot has been ongoing since 2019, the pilot has involved upgrading of Emali health center, Matiku and Tutini dispensaries and documentation of lessons learnt. The pilot will inform the scaling of the project to other facilities in Makueni County.</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="108"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="103"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="103"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="108" t="str">
+      <c r="F10" s="83" t="str">
         <f>Annual_data[[#Headers],[Objectives]]</f>
         <v>Objectives</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="102" t="str">
+      <c r="G10" s="84"/>
+      <c r="H10" s="77" t="str">
         <f>INDEX(Annual_data[Objectives],MATCH(Dashboard!$H$3,Annual_data[Facility name],0))</f>
         <v xml:space="preserve">To address access to primary health care through improvements in quality of care, engagement of communities, financial sustainability, and system efficiency. </v>
       </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="103"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="103"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F12" s="110" t="str">
+      <c r="F12" s="85" t="str">
         <f>Annual_data[[#Headers],[Partners]]</f>
         <v>Partners</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="100" t="str">
+      <c r="G12" s="86"/>
+      <c r="H12" s="75" t="str">
         <f>INDEX(Annual_data[Partners],MATCH(Dashboard!$H$3,Annual_data[Facility name],0))</f>
         <v>Philips, Amref and Makueni County</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="101"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>
@@ -36966,27 +36959,27 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="61" t="str">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="118" t="str">
         <f>IF(Dropdown!A4="Githurai-lang'ata", ("Better"),  ("Slightly Better"))</f>
         <v>Slightly Better</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="62"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="119"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="62"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="119"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
@@ -37009,27 +37002,27 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="64">
         <f>INDEX(Calcs!$B$4:$B$10,MATCH($B$19,Calcs!$A$4:$A$10,0))</f>
         <v>384</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="64">
         <f>INDEX(Calcs!$B$4:$B$10,MATCH($C$19,Calcs!$A$4:$A$10,0))</f>
         <v>465</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="124">
         <f>($C$20-$B$20)/$B$20*100</f>
         <v>21.09375</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="69"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
@@ -37052,33 +37045,33 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="64">
         <f>INDEX(Calcs!$C$4:$C$10,MATCH($B$23,Calcs!$A$4:$A$10,0))</f>
         <v>272</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="64">
         <f>INDEX(Calcs!$C$4:$C$10,MATCH($C$23,Calcs!$A$4:$A$10,0))</f>
         <v>354</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="126">
         <f>($C$24-$B$24)/$B$24*100</f>
         <v>30.147058823529409</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="68"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="124"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="69"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="125"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
@@ -37101,96 +37094,96 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="64">
         <f>INDEX(Calcs!$D$4:$D$10,MATCH($B$28,Calcs!$A$4:$A$10,0))</f>
         <v>27176</v>
       </c>
-      <c r="C29" s="90">
+      <c r="C29" s="64">
         <f>INDEX(Calcs!$D$4:$D$10,MATCH($C$28,Calcs!$A$4:$A$10,0))</f>
         <v>27022</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="87">
         <f>($C$29-$B$29)/$B$29*100</f>
         <v>-0.56667647924639386</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="64"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="64">
         <f>INDEX(Calcs!$F$4:$F$10,MATCH($B$28,Calcs!$A$4:$A$10,0))</f>
         <v>2035</v>
       </c>
-      <c r="C31" s="90">
+      <c r="C31" s="64">
         <f>INDEX(Calcs!$F$4:$F$10,MATCH($C$28,Calcs!$A$4:$A$10,0))</f>
         <v>2543</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="87">
         <f>($C$31-$B$31)/$B$31*100</f>
         <v>24.963144963144963</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="64"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="90">
+      <c r="B33" s="64">
         <f>INDEX(Calcs!$E$4:$E$10,MATCH($B$28,Calcs!$A$4:$A$10,0))</f>
         <v>3965</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="64">
         <f>INDEX(Calcs!$E$4:$E$10,MATCH($C$28,Calcs!$A$4:$A$10,0))</f>
         <v>5231</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="87">
         <f>(C33-B33)/B33*100</f>
         <v>31.929382093316523</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="64"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="90">
+      <c r="B35" s="64">
         <f>INDEX(Calcs!$G$4:$G$10,MATCH($B$28,Calcs!$A$4:$A$10,0))</f>
         <v>211</v>
       </c>
-      <c r="C35" s="90">
+      <c r="C35" s="64">
         <f>INDEX(Calcs!$G$4:$G$10,MATCH($C$28,Calcs!$A$4:$A$10,0))</f>
         <v>301</v>
       </c>
-      <c r="D35" s="71">
+      <c r="D35" s="88">
         <f>IFERROR((C35-B35)/B35*100,"Deliveries started in 2014")</f>
         <v>42.654028436018962</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="71"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
@@ -37200,27 +37193,27 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="66" t="str">
+      <c r="B39" s="68"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="122" t="str">
         <f>IF(Dropdown!A4="Githurai-lang'ata", ("Better"),  ("Slightly Better"))</f>
         <v>Slightly Better</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="87"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="67"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="123"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="87"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="67"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="123"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
@@ -37243,33 +37236,33 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="94">
+      <c r="B44" s="106">
         <f>INDEX(Calcs2!$B$4:$B$10,MATCH($B$43,Calcs2!$A$4:$A$10,0))</f>
         <v>0</v>
       </c>
-      <c r="C44" s="94">
+      <c r="C44" s="106">
         <f>INDEX(Calcs2!$B$4:$B$10,MATCH($C$43,Calcs2!$A$4:$A$10,0))</f>
         <v>3.3222591362126246</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D44" s="87">
         <f>$C$44-$B$44</f>
         <v>3.3222591362126246</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="64"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="87"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="64"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="87"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
@@ -37292,33 +37285,33 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="120">
+      <c r="B49" s="58">
         <f>INDEX(Calcs2!$C$4:$C$10,MATCH($B$48,Calcs2!$A$4:$A$10,0))</f>
         <v>6.2801932367149762</v>
       </c>
-      <c r="C49" s="123">
+      <c r="C49" s="61">
         <f>INDEX(Calcs2!$C$4:$C$10,MATCH($C$48,Calcs2!$A$4:$A$10,0))</f>
         <v>1.3605442176870748</v>
       </c>
-      <c r="D49" s="64">
+      <c r="D49" s="87">
         <f>$C$49-$B$49</f>
         <v>-4.9196490190279016</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="64"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="87"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="119"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="64"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="87"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
@@ -37341,33 +37334,33 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="120">
+      <c r="B54" s="58">
         <f>INDEX(Calcs2!$D$4:$D$10,MATCH($B$53,Calcs2!$A$4:$A$10,0))</f>
         <v>1.932367149758454</v>
       </c>
-      <c r="C54" s="123">
+      <c r="C54" s="61">
         <f>INDEX(Calcs2!$D$4:$D$10,MATCH($C$53,Calcs2!$A$4:$A$10,0))</f>
         <v>0.68027210884353739</v>
       </c>
-      <c r="D54" s="64">
+      <c r="D54" s="87">
         <f>$C$54-$B$54</f>
         <v>-1.2520950409149165</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="64"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="87"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="119"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="64"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="87"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
@@ -37390,98 +37383,98 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="113">
+      <c r="B59" s="49">
         <f>INDEX(Calcs2!E4:E10,MATCH($B$58,Calcs2!$A$4:$A$10,0))</f>
         <v>234</v>
       </c>
-      <c r="C59" s="116">
+      <c r="C59" s="52">
         <f>INDEX(Calcs2!E4:E10,MATCH($C$58,Calcs2!$A$4:$A$10,0))</f>
         <v>389</v>
       </c>
-      <c r="D59" s="64">
+      <c r="D59" s="87">
         <f>(($C$59-$B$59)/$B$59)*100</f>
         <v>66.239316239316238</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="64"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="87"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="64"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="87"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="64"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="87"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="65"/>
+      <c r="A63" s="107"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="121"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="58" t="s">
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="115" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="59"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="116"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="76"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="60"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="117"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="61" t="str">
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="118" t="str">
         <f>IF(Dropdown!A36="Githurai-lang'ata", ("Better"),  ("Slightly Better"))</f>
         <v>Slightly Better</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="80"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="62"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="119"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="80"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="62"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="119"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="63"/>
+      <c r="A74" s="99"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="120"/>
     </row>
     <row r="75" spans="1:4" s="37" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
@@ -37498,79 +37491,64 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="53">
+      <c r="B76" s="110">
         <f>INDEX(Calcs!$H$4:$H$10,MATCH($B$75,Calcs2!$A$4:$A$10,0))</f>
         <v>178900</v>
       </c>
-      <c r="C76" s="53">
+      <c r="C76" s="110">
         <f>INDEX(Calcs!$H$4:$H$10,MATCH($C$75,Calcs2!$A$4:$A$10,0))</f>
         <v>1702200</v>
       </c>
-      <c r="D76" s="56">
+      <c r="D76" s="113">
         <f>$C$76-$B$76</f>
         <v>1523300</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="56"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="113"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="56"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="113"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="56"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="113"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="52"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="57"/>
+      <c r="A80" s="107"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A15:C17"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H5:M9"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
@@ -37587,22 +37565,37 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A15:C17"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H5:M9"/>
+    <mergeCell ref="H10:M11"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
   </mergeCells>
   <conditionalFormatting sqref="A20">
     <cfRule type="iconSet" priority="23">
@@ -37828,8 +37821,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37859,63 +37852,63 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="127" t="s">
+      <c r="E2" s="128" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:5" ht="368.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
@@ -38427,21 +38420,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DEF0E4DAE2E8644BEB82F96BD4A2201" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee94cec44b6a226a0a933036fab13593">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44ab091d-f00c-49ad-98a9-5b33c819f06a" xmlns:ns4="5475ec48-1b41-4a10-8fee-cf51563dbe8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e02bd7139e442e864c41812cfeb97f1" ns3:_="" ns4:_="">
     <xsd:import namespace="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
@@ -38664,10 +38642,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF10E8E9-975A-4C7F-A05F-6549DF1111B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC7101B5-5498-4A69-BE61-1C04DFF0AB8C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
+    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38690,20 +38694,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC7101B5-5498-4A69-BE61-1C04DFF0AB8C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF10E8E9-975A-4C7F-A05F-6549DF1111B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
-    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>